--- a/Payroll System_v3.xlsx
+++ b/Payroll System_v3.xlsx
@@ -4,10 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Shift Entry" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Time Config" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Wage Config" sheetId="3" r:id="rId6"/>
-    <sheet state="hidden" name="Payslip" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Payslip List" sheetId="5" r:id="rId8"/>
+    <sheet state="hidden" name="Payslip" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Payslip List" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Time Config" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Wage Config" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Shift Entry'!$A$1:$Z$49</definedName>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,186 @@
     <t>Tania</t>
   </si>
   <si>
+    <t>Weekly Payslip</t>
+  </si>
+  <si>
+    <t>Name: Day</t>
+  </si>
+  <si>
+    <t>Week:</t>
+  </si>
+  <si>
+    <t>14/07/2025 to 20/07/2025</t>
+  </si>
+  <si>
+    <t>Shift Logs</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WD_Regular</t>
+  </si>
+  <si>
+    <t>WD_Late_OT</t>
+  </si>
+  <si>
+    <t>SAT_Regular</t>
+  </si>
+  <si>
+    <t>SAT_Late_OT</t>
+  </si>
+  <si>
+    <t>Weekly_OT_38</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>WD_Regular:</t>
+  </si>
+  <si>
+    <t>29.25 hours</t>
+  </si>
+  <si>
+    <t>at $30.13</t>
+  </si>
+  <si>
+    <t>WD_Late_OT:</t>
+  </si>
+  <si>
+    <t>1.25 hours</t>
+  </si>
+  <si>
+    <t>at $32.85</t>
+  </si>
+  <si>
+    <t>SAT_Regular:</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>at $33.13</t>
+  </si>
+  <si>
+    <t>SAT_Late_OT:</t>
+  </si>
+  <si>
+    <t>3.5 hours</t>
+  </si>
+  <si>
+    <t>at $33.85</t>
+  </si>
+  <si>
+    <t>Weekly_OT_38:</t>
+  </si>
+  <si>
+    <t>1 hours</t>
+  </si>
+  <si>
+    <t>at $36.15</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>17 hours</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
+  </si>
+  <si>
+    <t>14.25 hours</t>
+  </si>
+  <si>
+    <t>2.75 hours</t>
+  </si>
+  <si>
+    <t>0.5 hours</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>22.5 hours</t>
+  </si>
+  <si>
+    <t>39 hours</t>
+  </si>
+  <si>
+    <t>28.5 hours</t>
+  </si>
+  <si>
+    <t>4.5 hours</t>
+  </si>
+  <si>
+    <t>37.25 hours</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>32.75 hours</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
+  </si>
+  <si>
+    <t>10.5 hours</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>8.5 hours</t>
+  </si>
+  <si>
+    <t>15 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>25.5 hours</t>
+  </si>
+  <si>
+    <t>9 hours</t>
+  </si>
+  <si>
+    <t>5.5 hours</t>
+  </si>
+  <si>
     <t>OPEN_TIME</t>
   </si>
   <si>
@@ -180,6 +360,9 @@
     <t>OT_WEEKLY_TIME_THRESHOLD</t>
   </si>
   <si>
+    <t>BOOL_WEEKEND_OT</t>
+  </si>
+  <si>
     <t>38,40</t>
   </si>
   <si>
@@ -216,187 +399,10 @@
     <t>SUN_LATE_OT_WAGE</t>
   </si>
   <si>
+    <t>BOOL_SHOW_WAGE</t>
+  </si>
+  <si>
     <t>36.15,48.2</t>
-  </si>
-  <si>
-    <t>Weekly Payslip</t>
-  </si>
-  <si>
-    <t>Name: Day</t>
-  </si>
-  <si>
-    <t>Week:</t>
-  </si>
-  <si>
-    <t>14/07/2025 to 20/07/2025</t>
-  </si>
-  <si>
-    <t>Shift Logs</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>WD_Regular</t>
-  </si>
-  <si>
-    <t>WD_Late_OT</t>
-  </si>
-  <si>
-    <t>SAT_Regular</t>
-  </si>
-  <si>
-    <t>SAT_Late_OT</t>
-  </si>
-  <si>
-    <t>Weekly_OT_38</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>WD_Regular:</t>
-  </si>
-  <si>
-    <t>29.25 hours</t>
-  </si>
-  <si>
-    <t>at $30.13</t>
-  </si>
-  <si>
-    <t>WD_Late_OT:</t>
-  </si>
-  <si>
-    <t>1.25 hours</t>
-  </si>
-  <si>
-    <t>at $32.85</t>
-  </si>
-  <si>
-    <t>SAT_Regular:</t>
-  </si>
-  <si>
-    <t>4 hours</t>
-  </si>
-  <si>
-    <t>at $33.13</t>
-  </si>
-  <si>
-    <t>SAT_Late_OT:</t>
-  </si>
-  <si>
-    <t>3.5 hours</t>
-  </si>
-  <si>
-    <t>at $33.85</t>
-  </si>
-  <si>
-    <t>Weekly_OT_38:</t>
-  </si>
-  <si>
-    <t>1 hours</t>
-  </si>
-  <si>
-    <t>at $36.15</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>17 hours</t>
-  </si>
-  <si>
-    <t>3 hours</t>
-  </si>
-  <si>
-    <t>20 hours</t>
-  </si>
-  <si>
-    <t>14.25 hours</t>
-  </si>
-  <si>
-    <t>2.75 hours</t>
-  </si>
-  <si>
-    <t>5.5 hours</t>
-  </si>
-  <si>
-    <t>22.5 hours</t>
-  </si>
-  <si>
-    <t>7.5 hours</t>
-  </si>
-  <si>
-    <t>39 hours</t>
-  </si>
-  <si>
-    <t>28.5 hours</t>
-  </si>
-  <si>
-    <t>37.25 hours</t>
-  </si>
-  <si>
-    <t>24 hours</t>
-  </si>
-  <si>
-    <t>6 hours</t>
-  </si>
-  <si>
-    <t>32.75 hours</t>
-  </si>
-  <si>
-    <t>2.5 hours</t>
-  </si>
-  <si>
-    <t>10.5 hours</t>
-  </si>
-  <si>
-    <t>1.5 hours</t>
-  </si>
-  <si>
-    <t>4.5 hours</t>
-  </si>
-  <si>
-    <t>8.5 hours</t>
-  </si>
-  <si>
-    <t>15 hours</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>25.5 hours</t>
-  </si>
-  <si>
-    <t>9 hours</t>
   </si>
 </sst>
 </file>
@@ -406,8 +412,8 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="h&quot;:&quot;mm&quot; &quot;am/pm"/>
-    <numFmt numFmtId="166" formatCode="hh:mm"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="hh:mm"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3">
@@ -453,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -488,11 +494,27 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -568,14 +590,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -639,6 +653,14 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3662,6 +3684,3236 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="2" max="2" width="9.38"/>
+    <col customWidth="1" min="3" max="3" width="8.38"/>
+    <col customWidth="1" min="4" max="4" width="9.0"/>
+    <col customWidth="1" min="5" max="5" width="5.38"/>
+    <col customWidth="1" min="6" max="6" width="5.13"/>
+    <col customWidth="1" min="7" max="7" width="11.5"/>
+    <col customWidth="1" min="8" max="8" width="12.5"/>
+    <col customWidth="1" min="9" max="9" width="10.88"/>
+    <col customWidth="1" min="10" max="10" width="11.5"/>
+    <col customWidth="1" min="11" max="12" width="12.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6">
+        <v>45858.0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>45852.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9">
+        <v>881.3</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9">
+        <v>41.06</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9">
+        <v>132.52</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9">
+        <v>118.48</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="9">
+        <v>36.15</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="9">
+        <v>1209.51</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2"/>
+      <c r="C34" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(B1))), AND(ISNUMBER(B1), LEFT(CELL("format", B1))="D"))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>45852.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>45856.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>45852.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6">
+        <v>45852.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="G44" s="8">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="G45" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G46" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6">
+        <v>45852.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="G64" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="G65" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="G66" s="8">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F68" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="I68" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J68" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="20"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="24"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6">
+        <v>45852.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F83" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="G83" s="8">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.84375</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F84" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="G84" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F85" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E86" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F86" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E87" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="I87" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J87" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K87" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="15"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="14"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="24"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="7">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F103" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H103" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6">
+        <v>45854.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F104" s="8">
+        <v>6.75</v>
+      </c>
+      <c r="G104" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H104" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="7">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F105" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G105" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6">
+        <v>45856.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="7">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F106" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G106" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="7">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F107" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="I107" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J107" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="14"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="25"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F122" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="G122" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H122" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F123" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="I123" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J123" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="D124" s="15"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="14"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="24"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="25"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="26"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="14"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="E138" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G138" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H138" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="7">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F139" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I139" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="14"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="24"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="25"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="26"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6">
+        <v>45853.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="7">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D153" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="E153" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F153" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="G153" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H153" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="7">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E154" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F154" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G154" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="7">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E155" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F155" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="I155" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J155" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158" s="14"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="24"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="24"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6">
+        <v>45855.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="7">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="E170" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F170" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="G170" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E171" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F171" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H171" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I171" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" s="14"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="14"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="30"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D185" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E185" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F185" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G185" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H185" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="14"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="30"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="14"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" s="7">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="D198" s="7">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E198" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F198" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="14"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="14"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="15"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="30"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="6">
+        <v>45857.0</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" s="7">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="D210" s="7">
+        <v>0.9375</v>
+      </c>
+      <c r="E210" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F210" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="G210" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="11.5"/>
     <col customWidth="1" min="3" max="3" width="25.0"/>
     <col customWidth="1" min="4" max="4" width="27.13"/>
@@ -3669,30 +6921,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>0.2916666666666667</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0.7916666666666666</v>
       </c>
       <c r="C2" s="2">
         <v>12.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +6959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3726,37 +6984,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -3764,7 +7025,7 @@
         <v>36.15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>30.13</v>
@@ -3792,2825 +7053,13 @@
       </c>
       <c r="K2" s="2">
         <v>34.95</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
-    <col customWidth="1" min="2" max="2" width="9.38"/>
-    <col customWidth="1" min="3" max="3" width="8.38"/>
-    <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="5" max="5" width="5.38"/>
-    <col customWidth="1" min="6" max="6" width="5.13"/>
-    <col customWidth="1" min="7" max="7" width="11.5"/>
-    <col customWidth="1" min="8" max="8" width="12.5"/>
-    <col customWidth="1" min="9" max="9" width="10.88"/>
-    <col customWidth="1" min="10" max="10" width="11.5"/>
-    <col customWidth="1" min="11" max="12" width="12.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7">
-        <v>45858.0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
-        <v>45852.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.6354166666666666</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.84375</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>8.25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9">
-        <v>881.3</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="9">
-        <v>41.06</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="9">
-        <v>132.52</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="9">
-        <v>118.48</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="9">
-        <v>36.15</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="9">
-        <v>1209.51</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="C34" s="9"/>
-    </row>
-  </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(B1))), AND(ISNUMBER(B1), LEFT(CELL("format", B1))="D"))</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
-        <v>45852.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>45856.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7">
-        <v>45852.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.4895833333333333</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>3.75</v>
-      </c>
-      <c r="G25" s="8">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="H26" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.8020833333333334</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>4.75</v>
-      </c>
-      <c r="G27" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="G28" s="8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="I29" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7">
-        <v>45852.0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.6354166666666666</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="8">
-        <v>6.25</v>
-      </c>
-      <c r="G43" s="8">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.84375</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="8">
-        <v>8.25</v>
-      </c>
-      <c r="G44" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G46" s="8">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="I47" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J47" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7">
-        <v>45852.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F62" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="G62" s="8">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0.5208333333333334</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.84375</v>
-      </c>
-      <c r="E63" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="8">
-        <v>7.25</v>
-      </c>
-      <c r="G63" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="H63" s="8">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="E64" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F64" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="G64" s="8">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E65" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F65" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G65" s="8">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="6">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="D66" s="6">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E66" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F66" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="I66" s="8">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7">
-        <v>45852.0</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0.6354166666666666</v>
-      </c>
-      <c r="E80" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F80" s="8">
-        <v>6.25</v>
-      </c>
-      <c r="G80" s="8">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="6">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0.84375</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F81" s="8">
-        <v>8.25</v>
-      </c>
-      <c r="G81" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="H81" s="8">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="6">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E82" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F82" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G82" s="8">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E83" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F83" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G83" s="8">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D84" s="6">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E84" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F84" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="I84" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J84" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="6">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D99" s="6">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="E99" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F99" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="G99" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="H99" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="7">
-        <v>45854.0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C100" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D100" s="6">
-        <v>0.8020833333333334</v>
-      </c>
-      <c r="E100" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F100" s="8">
-        <v>6.75</v>
-      </c>
-      <c r="G100" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="H100" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" s="6">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D101" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E101" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F101" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="G101" s="8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="7">
-        <v>45856.0</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="6">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D102" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E102" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F102" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="G102" s="8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="6">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="D103" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E103" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F103" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="I103" s="8">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C117" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D117" s="6">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="E117" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F117" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="G117" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="H117" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D118" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E118" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F118" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="I118" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C132" s="6">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="D132" s="6">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="E132" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F132" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="G132" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H132" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C133" s="6">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="D133" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E133" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F133" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="I133" s="8">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="7">
-        <v>45853.0</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D147" s="6">
-        <v>0.875</v>
-      </c>
-      <c r="E147" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F147" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="G147" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="H147" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C148" s="6">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D148" s="6">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E148" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F148" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="G148" s="8">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" s="6">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D149" s="6">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E149" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F149" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="I149" s="8">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="7">
-        <v>45855.0</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C163" s="6">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D163" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="E163" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F163" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="G163" s="8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C164" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D164" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E164" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F164" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="H164" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="16"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D176" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C177" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D177" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E177" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F177" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="G177" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="16"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F188" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G188" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C189" s="6">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="D189" s="6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="E189" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F189" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="G189" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D200" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="7">
-        <v>45857.0</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C201" s="6">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="D201" s="6">
-        <v>0.9375</v>
-      </c>
-      <c r="E201" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F201" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="G201" s="8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Payroll System_v3.xlsx
+++ b/Payroll System_v3.xlsx
@@ -40,6 +40,11 @@
     <comment authorId="0" ref="D1">
       <text>
         <t xml:space="preserve">Weekly OT starts after first threshold hours</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E1">
+      <text>
+        <t xml:space="preserve">Enable/Disable Parsing Weekend Early/Late Over Time</t>
       </text>
     </comment>
   </commentList>
@@ -105,6 +110,12 @@
     <comment authorId="0" ref="K1">
       <text>
         <t xml:space="preserve">Wage after closing hours (Sunday)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L1">
+      <text>
+        <t xml:space="preserve">Enable/Disable show wage 
+calculation</t>
       </text>
     </comment>
   </commentList>
@@ -586,6 +597,419 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3514725" cy="5457825"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1471875" y="263925"/>
+          <a:ext cx="3492000" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd fmla="val 16667" name="adj"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF2CC"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>How to Use This Sheet</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Enter your </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Date, Name, Shift Start Time, Shift End Time, and Break (hours)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> from the Work Log.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Click the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Generate Payslip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> button to run the script.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The script will calculate work hours based on your time policy and create weekly payslips in the sheet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>“Payslip List”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>You can print the payslips if required.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Before entering a new week’s Work Log, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>delete all previous records</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>Important Warnings</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Do not delete or modify the header row.</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Keep column formats consistent:</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>Date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>Start Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>End Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> → Date/Time format</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> → Text</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>Break</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> → Numbe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>r</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If any records fail validation, you will receive a notification.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Invalid entries are </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>excluded</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> from the calculation until corrected.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -601,7 +1025,7 @@
     <xdr:ext cx="1895475" cy="685800"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="5" name="Shape 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -660,11 +1084,1023 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4629150" cy="3352800"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Shape 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375525" y="203025"/>
+          <a:ext cx="4608600" cy="3329400"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd fmla="val 16667" name="adj"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF2CC"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>Time Config Panel</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This sheet provides the reference settings the script uses to calculate work logs according to your business’s time policy.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Do not edit these values unless you have confirmed a change in business policy.</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>Warnings</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Never delete or modify the header row.</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If the config fails validation, you will receive a warning and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>calculation will not proceed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> until fixed.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5915025" cy="5505450"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Shape 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="406050" y="223325"/>
+          <a:ext cx="5897700" cy="5420700"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd fmla="val 16667" name="adj"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF2CC"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>Column Guide</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>OPEN_TIME / CLOSE_TIME</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Defines regular business hours.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Any hours outside this range are considered </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>early/late overtime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Values must be in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Date/Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> format.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>CLOSE_TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> must always be later than </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr i="1" lang="en-US" sz="1100"/>
+            <a:t>OPEN_TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>OT_DAILY_TIME_THRESHOLD / OT_WEEKLY_TIME_THRESHOLD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Defines the daily or weekly thresholds for overtime.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If staff work beyond these thresholds, excess hours are assigned higher wage rates.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Example: OT_WEEKLY_TIME_THRESHOLD = 38,40 means hours over 38 and 40 in a week are calculated separately at higher rates.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Values must be either:</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="2" marL="1371600" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="■"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a single number (e.g. 12), or</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="2" marL="1371600" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="■"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a comma-separated list without spaces (e.g. 38,42,45).</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Wage Threshold Alignment</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> The number of thresholds must always match the number of wage levels.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Example: if OT_WEEKLY_TIME_THRESHOLD = 38,42,45 then OT_WEEKLY_THRESHOLD_WAGE must also have </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>three elements</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> (e.g. 36.15,37.25,40).</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>BOOL_WEEKEND_OT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Enables or disables weekend overtime parsing.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Must be a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Boolean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> value: TRUE or FALSE.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If enabled, weekend hours are split into Early OT / Late OT / Regular, instead of being counted entirely as regular hours.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4210050" cy="2943225"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Shape 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="578575" y="131975"/>
+          <a:ext cx="4192500" cy="2923500"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd fmla="val 16667" name="adj"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF2CC"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>Wage Config Panel</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This sheet defines the reference settings the script uses to calculate wages for different rates of parsed working hours.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Wage is always calculated in the background.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Wages will only be displayed on payslips if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>BOOL_SHOW_WAGE = TRUE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If you do not require this feature, you can usually ignore this sheet.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Never delete or modify the header row.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4362450" cy="3933825"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Shape 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314675" y="233475"/>
+          <a:ext cx="4344600" cy="3674700"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd fmla="val 16667" name="adj"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF2CC"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300"/>
+            <a:t>Key Rules</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Threshold–Wage Alignment</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> The number of thresholds must always match the number of wage levels.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Example: if OT_WEEKLY_TIME_THRESHOLD = 38,42,45 then OT_WEEKLY_THRESHOLD_WAGE must also contain three values (e.g. 36.15,37.25,40).</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Break Time Policy</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Break hours are always deducted from the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>lowest wage rate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> working hours.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="●"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>Recommended Setup</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Even if you do not use wage calculation, it is strongly recommended to set up </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:t>mock salary values</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="-298450" lvl="1" marL="914400" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buChar char="○"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This helps preserve the correct proportional relationship between wage levels.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
